--- a/WorkingFolder/kNN final/k_NN_3.xlsx
+++ b/WorkingFolder/kNN final/k_NN_3.xlsx
@@ -649,7 +649,7 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:F64"/>
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
